--- a/roles_BioHackathon2023.xlsx
+++ b/roles_BioHackathon2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sjcrh-my.sharepoint.com/personal/sselukar_stjude_org/Documents/Documents/Research/Projects/Methods/TimeVaryingBMT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{B41E7AF5-1FE9-486D-A35E-51493A8912CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B744D17-0518-4D38-B982-D37F2C6AE88E}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{B41E7AF5-1FE9-486D-A35E-51493A8912CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C9E3071-C41F-43DE-AEB5-E91003B1D669}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{28D3244B-B5EB-47D8-A71B-EB5C60FB438C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Front end</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>Develop Shiny app: accept user input data and user input covariate trajectory, produce Cox PH summary table and predicted survival curve</t>
+  </si>
+  <si>
+    <t>Yonghui</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Ashish</t>
   </si>
 </sst>
 </file>
@@ -453,7 +462,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,16 +529,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>

--- a/roles_BioHackathon2023.xlsx
+++ b/roles_BioHackathon2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sjcrh-my.sharepoint.com/personal/sselukar_stjude_org/Documents/Documents/Research/Projects/Methods/TimeVaryingBMT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{B41E7AF5-1FE9-486D-A35E-51493A8912CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C9E3071-C41F-43DE-AEB5-E91003B1D669}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{B41E7AF5-1FE9-486D-A35E-51493A8912CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02C20B59-BAA6-4EDC-BDD8-8E9DD6F29BDB}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{28D3244B-B5EB-47D8-A71B-EB5C60FB438C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Front end</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Ashish</t>
+  </si>
+  <si>
+    <t>Chengzhou</t>
   </si>
 </sst>
 </file>
@@ -462,14 +465,14 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -553,7 +556,9 @@
         <v>9</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>

--- a/roles_BioHackathon2023.xlsx
+++ b/roles_BioHackathon2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sjcrh-my.sharepoint.com/personal/sselukar_stjude_org/Documents/Documents/Research/Projects/Methods/TimeVaryingBMT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{B41E7AF5-1FE9-486D-A35E-51493A8912CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02C20B59-BAA6-4EDC-BDD8-8E9DD6F29BDB}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{B41E7AF5-1FE9-486D-A35E-51493A8912CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B182266-A4C9-40B3-852C-55A02836578E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{28D3244B-B5EB-47D8-A71B-EB5C60FB438C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Front end</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>Chengzhou</t>
+  </si>
+  <si>
+    <t>Chandrika</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Subodh</t>
   </si>
 </sst>
 </file>
@@ -465,7 +474,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,11 +540,15 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
@@ -548,7 +561,9 @@
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
